--- a/data/ETLed data.xlsx
+++ b/data/ETLed data.xlsx
@@ -13744,7 +13744,7 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F132" t="n">
         <v>-1</v>

--- a/data/ETLed data.xlsx
+++ b/data/ETLed data.xlsx
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -17576,7 +17576,7 @@
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
@@ -17624,7 +17624,7 @@
         <v>1</v>
       </c>
       <c r="S170" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="T170" t="n">
         <v>0</v>
@@ -24088,7 +24088,7 @@
         <v>-1</v>
       </c>
       <c r="S234" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="T234" t="n">
         <v>0</v>
@@ -30754,7 +30754,7 @@
         <v>0</v>
       </c>
       <c r="S300" t="n">
-        <v>1</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="T300" t="n">
         <v>0</v>
@@ -31817,7 +31817,7 @@
         <v>1</v>
       </c>
       <c r="C311" t="n">
-        <v>2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D311" t="n">
         <v>0</v>
@@ -32269,7 +32269,7 @@
         <v>1</v>
       </c>
       <c r="S315" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="T315" t="n">
         <v>0</v>
@@ -32774,7 +32774,7 @@
         <v>-1</v>
       </c>
       <c r="S320" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="T320" t="n">
         <v>0</v>
@@ -33582,7 +33582,7 @@
         <v>0</v>
       </c>
       <c r="S328" t="n">
-        <v>1</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="T328" t="n">
         <v>0</v>
@@ -45856,7 +45856,7 @@
         <v>3</v>
       </c>
       <c r="C450" t="n">
-        <v>3</v>
+        <v>0.25</v>
       </c>
       <c r="D450" t="n">
         <v>0</v>
